--- a/extractedDataSet.xlsx
+++ b/extractedDataSet.xlsx
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC3"/>
+  <dimension ref="A10:BC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="A1:XFD1048576 E11"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -370,146 +370,102 @@
     <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:55" x14ac:dyDescent="0.25">
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
+    <row r="10" spans="4:55" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
     </row>
-    <row r="2" spans="4:55" x14ac:dyDescent="0.25">
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1"/>
-      <c r="BB2" s="1"/>
-    </row>
-    <row r="3" spans="4:55" x14ac:dyDescent="0.25">
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
-      <c r="AZ3" s="1"/>
-      <c r="BA3" s="1"/>
-      <c r="BB3" s="1"/>
+    <row r="11" spans="4:55" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/extractedDataSet.xlsx
+++ b/extractedDataSet.xlsx
@@ -1,75 +1,440 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\CitizenBankDocumentExtraction\CitizenBankDocumentExtraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205" firstSheet="0" activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="0"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+  <x:si>
+    <x:t>Salutation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FullName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date Of Birth (AD)(dd-mm-yyyy)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date Of Birth (BS)(yyyy-mm-dd)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nationality</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Citizenship Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Issuing Office</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Issued Date(BS)(yyyy-mm-dd)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Permanent House Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Permanent Tole</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Permanent Ward Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Permanent Mobile Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Permanent Zone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Male</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Female</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gender - Others</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spouse Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Father Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mother Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrandFather Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrandMother Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A/C Type - Saving Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A/C  Type - Current Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scheme</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Currency NPR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Annual No of Transaction - 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Annual No of Transaction - 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Annual No of Transaction - 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Annual No of Transaction - 200+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MS - Single</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MS - Married</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Name Of Institution</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Designation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Institution Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SOI - Salary</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SOI - Business</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SOI - Rent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SOI - Pension</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SOI - Remittance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Education - Below SLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Education - SLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Education - Intermediate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Education - Bachelors</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Education - Masters</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Occupation - Service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Occupation - Business</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Occupation - Professional</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Occupation - Housewife</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Purpose of A/C - Saving</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Purpose of A/C - Salary</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Purpose of A/C - Business</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Purpose of A/C - Remittance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mode - Singly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mode - Jointly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HART OM SHARAN GHRESTHA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23112040</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nepall</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ohading</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2057-08-12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Naubse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>980108721</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shreytha. Aarion 11@gmarl.Com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rachana Shakep</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Narahari Shrestha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kamala shrestha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Heera lal shrestha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dil Kumari shnestha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BINA KUMART TAMANG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>☐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nepali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30-01-74-19628</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kovrepalonthol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80641017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9840886236</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tamang.bing2000 @qmail.Com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Boamat"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mikmat Tamang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maili Tomang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DNS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Receotionist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nan Dokhari, Nasal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAYA KHANAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14042045</x:t>
+  </x:si>
+  <x:si>
+    <x:t>029000/2653</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pachthar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2068/10/26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9817940742</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bagmati</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bhanu Bhakta Khanal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hani lad paudel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tark Masa pandel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V</x:t>
+  </x:si>
+  <x:si>
+    <x:t>'Shree yagyamat' See. School</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Teaching</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MINA KUMART TAMANG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16082001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30052058</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20-01-76-0576</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kavrepalonchot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2076-05-22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9849831732</x:t>
+  </x:si>
+  <x:si>
+    <x:t>meenaloma 2001@gmail.Com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bogmati</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mikmar Tamang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maili Tamands</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lurba Namgyl Tamang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Royal Saine Bar 8Restusrant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hostagess</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Durbar Manae</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="1" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,118 +721,736 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:BC11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="10" spans="4:55" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
-      <c r="AU10" s="1"/>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
-      <c r="AX10" s="1"/>
-      <c r="AY10" s="1"/>
-      <c r="AZ10" s="1"/>
-      <c r="BA10" s="1"/>
-      <c r="BB10" s="1"/>
-      <c r="BC10" s="1"/>
-    </row>
-    <row r="11" spans="4:55" x14ac:dyDescent="0.25">
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1"/>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="1"/>
-      <c r="AT11" s="1"/>
-      <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
-      <c r="AX11" s="1"/>
-      <c r="AY11" s="1"/>
-      <c r="AZ11" s="1"/>
-      <c r="BA11" s="1"/>
-      <c r="BB11" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A10:BC11"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="K4" sqref="K4 K4:K4"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <x:col min="2" max="2" width="17" style="2" customWidth="1"/>
+    <x:col min="3" max="3" width="15.425781" style="2" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:55">
+      <x:c r="A1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L1" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M1" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N1" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="O1" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="P1" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="Q1" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="R1" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="S1" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="T1" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="U1" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="V1" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="W1" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="X1" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Y1" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="Z1" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="AA1" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="AB1" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="AC1" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="AD1" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AE1" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AF1" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="AG1" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AH1" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="AI1" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="AJ1" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AK1" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="AL1" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AM1" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="AN1" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AO1" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AP1" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AQ1" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AR1" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AS1" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AT1" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="AU1" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="AV1" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="AW1" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AX1" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AY1" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AZ1" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="BA1" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="BB1" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="BC1" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:55">
+      <x:c r="B2" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E2" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F2" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G2" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="H2" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="J2" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K2" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="L2" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="M2" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="O2" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="P2" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="Q2" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="R2" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="S2" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="T2" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="U2" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="V2" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="W2" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="X2" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="Z2" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AA2" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AE2" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AF2" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AJ2" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AK2" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AL2" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AM2" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AN2" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AO2" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AP2" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AQ2" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AR2" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AS2" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AT2" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AU2" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AV2" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AW2" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AX2" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AY2" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AZ2" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="BA2" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="BB2" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:55">
+      <x:c r="B3" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G3" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="H3" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="K3" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L3" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="M3" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="N3" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="P3" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="Q3" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S3" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="T3" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="U3" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="W3" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="X3" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="Z3" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AA3" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AE3" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AF3" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AG3" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="AH3" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="AI3" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="AJ3" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AK3" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AL3" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AM3" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AN3" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AO3" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AP3" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AQ3" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AR3" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AS3" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AT3" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AU3" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AV3" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AW3" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AX3" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AY3" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AZ3" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="BA3" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="BB3" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:55">
+      <x:c r="B4" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E4" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="G4" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="H4" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="K4" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="L4" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="N4" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="O4" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="P4" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="Q4" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="R4" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="S4" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="T4" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="U4" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="W4" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="X4" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="Z4" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AA4" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AE4" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AF4" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AG4" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="AH4" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="AI4" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="AJ4" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AK4" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AL4" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AM4" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AN4" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AO4" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AP4" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AQ4" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AR4" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AS4" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AT4" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AU4" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AV4" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AW4" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AX4" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AY4" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AZ4" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="BA4" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="BB4" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:55">
+      <x:c r="B5" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="K5" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L5" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="M5" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="N5" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="O5" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="P5" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="Q5" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="S5" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="T5" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="U5" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="V5" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="W5" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="X5" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="Z5" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AA5" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AE5" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AF5" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AG5" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="AH5" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="AI5" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="AJ5" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AK5" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AL5" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AM5" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AN5" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AO5" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AP5" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AQ5" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AR5" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AS5" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AT5" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AU5" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AV5" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AW5" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AX5" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AY5" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AZ5" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="BA5" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="BB5" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:55" x14ac:dyDescent="0.25"/>
+    <x:row r="11" spans="1:55" x14ac:dyDescent="0.25"/>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>